--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2624772.927435595</v>
+        <v>2626533.457738379</v>
       </c>
     </row>
     <row r="7">
@@ -664,19 +664,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>62.92930610001664</v>
       </c>
       <c r="F2" t="n">
-        <v>27.79970453610457</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>13.62519315636335</v>
+        <v>12.49517055697447</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,13 +898,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292587</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -958,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>57.01231827275779</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>236.1496593854058</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734116405</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>72.08802744677348</v>
+        <v>72.08802744677259</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1141,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>108.9520512661154</v>
+        <v>108.9520512661119</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2.965225780612329</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>58.28185552386429</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>148.8744394430824</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>110.0177171766856</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620682</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2134,10 +2134,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176115</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>85.71023095289448</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2718,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2845,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>41.33703994142957</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>59.44001103519371</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>1.79977260571614</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>33.828918917875</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>240.06330988836</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H46" t="n">
-        <v>107.4021082756238</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4309,73 +4309,73 @@
         <v>1664.678443125553</v>
       </c>
       <c r="C2" t="n">
-        <v>1295.715926185142</v>
+        <v>1295.715926185141</v>
       </c>
       <c r="D2" t="n">
-        <v>937.4502275783914</v>
+        <v>1295.715926185141</v>
       </c>
       <c r="E2" t="n">
-        <v>551.6619749801471</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001391</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
         <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794326</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450755</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450755</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X2" t="n">
-        <v>2051.278283189675</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="Y2" t="n">
-        <v>2051.278283189675</v>
+        <v>2051.278283189674</v>
       </c>
     </row>
     <row r="3">
@@ -4385,34 +4385,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601604</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
         <v>765.1517452158134</v>
@@ -4430,7 +4430,7 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125857</v>
@@ -4439,16 +4439,16 @@
         <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>692.8974549201677</v>
+        <v>541.6393785387522</v>
       </c>
       <c r="C4" t="n">
-        <v>679.1346335501037</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D4" t="n">
         <v>529.0179941377679</v>
@@ -4479,16 +4479,16 @@
         <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372933</v>
@@ -4512,28 +4512,28 @@
         <v>920.887005818185</v>
       </c>
       <c r="R4" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S4" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T4" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="U4" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="V4" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="W4" t="n">
-        <v>920.887005818185</v>
+        <v>541.6393785387522</v>
       </c>
       <c r="X4" t="n">
-        <v>692.8974549201677</v>
+        <v>541.6393785387522</v>
       </c>
       <c r="Y4" t="n">
-        <v>692.8974549201677</v>
+        <v>541.6393785387522</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1590.416669135309</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C5" t="n">
-        <v>1590.416669135309</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839474</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927146</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794326</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450755</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2367.155841175242</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="X5" t="n">
-        <v>2367.155841175242</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="Y5" t="n">
-        <v>1977.016509199431</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387302</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
         <v>176.0213023927779</v>
@@ -4643,31 +4643,31 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.91239341064</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886743</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533343</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4713,64 +4713,64 @@
         <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962296</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372934</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596508</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588487</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886963</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068862</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.966238459645</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181858</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181858</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181858</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181858</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181858</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181858</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W7" t="n">
-        <v>920.8870058181858</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X7" t="n">
-        <v>920.8870058181858</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y7" t="n">
-        <v>920.8870058181858</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>921.7704558796288</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="C8" t="n">
-        <v>552.8079389392171</v>
+        <v>552.8079389392135</v>
       </c>
       <c r="D8" t="n">
-        <v>194.5422403324666</v>
+        <v>194.542240332463</v>
       </c>
       <c r="E8" t="n">
-        <v>84.4896632959864</v>
+        <v>84.48966329598633</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678293</v>
+        <v>77.54416254678286</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218348</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218348</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218348</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052371</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609174</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136269</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520491</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794327</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450756</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180642</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919562</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943751</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="9">
@@ -4874,28 +4874,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218348</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158138</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527296</v>
+        <v>217.4203875707506</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248227</v>
+        <v>217.4203875707506</v>
       </c>
       <c r="D10" t="n">
-        <v>361.315157512487</v>
+        <v>217.4203875707506</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>69.50729398835747</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218348</v>
+        <v>69.50729398835747</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218348</v>
+        <v>69.50729398835747</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218348</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218348</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962299</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372935</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596508</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588487</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886963</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068862</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.966238459645</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181858</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181858</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181858</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181858</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181858</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181858</v>
+        <v>666.202517612298</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181858</v>
+        <v>666.202517612298</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181858</v>
+        <v>438.2129667142807</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829693</v>
+        <v>217.4203875707506</v>
       </c>
     </row>
     <row r="11">
@@ -5032,28 +5032,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400712</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D13" t="n">
-        <v>513.8536007400712</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E13" t="n">
-        <v>513.8536007400712</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5226,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="14">
@@ -5269,34 +5269,34 @@
         <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852254</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797186</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5518,7 +5518,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075806</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5530,37 +5530,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5749,7 +5749,7 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111711</v>
@@ -5782,7 +5782,7 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797186</v>
@@ -5940,22 +5940,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2110.486554626058</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1821.411327970255</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1566.726839764368</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1277.309669727408</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5986,7 +5986,7 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6189,10 +6189,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6217,13 +6217,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6235,10 +6235,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6469,16 +6469,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6679,40 +6679,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6721,28 +6721,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
         <v>402.7245934908939</v>
@@ -6852,10 +6852,10 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>636.6680198981028</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>467.7318369701959</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2319.876964645598</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2100.27549966854</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1811.200273012738</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1556.515784806851</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1267.09861476989</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1039.109063871873</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>818.3164847283425</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7156,67 +7156,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192559</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7374,10 +7374,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>653.7474797708871</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429803</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1284.178074642674</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X43" t="n">
-        <v>1056.188523744657</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y43" t="n">
-        <v>835.3959446011269</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="44">
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>814.4194208819168</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>664.3027814695811</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>516.389687887188</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>369.4997403892776</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>202.3036411041575</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>30.9575407388549</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>35.40333084624569</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>131.6952193743938</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>9.000252501566052</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>121.5862749664509</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>138.4949402405078</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>191.8807364711622</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H46" t="n">
-        <v>32.8926045706001</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>781427.9248658014</v>
+        <v>781427.9248658015</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>781427.9248658014</v>
+        <v>781427.9248658015</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>781427.9248658014</v>
+        <v>781427.9248658016</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>781427.9248658015</v>
+        <v>781427.9248658014</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>781427.9248658015</v>
+        <v>781427.9248658014</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>781427.9248658015</v>
+        <v>781427.9248658014</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>781427.9248658015</v>
+        <v>781427.9248658014</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>781427.9248658016</v>
+        <v>781427.9248658015</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>656833.4158914268</v>
       </c>
       <c r="C2" t="n">
+        <v>656833.4158914266</v>
+      </c>
+      <c r="D2" t="n">
         <v>656833.4158914267</v>
       </c>
-      <c r="D2" t="n">
-        <v>656833.415891427</v>
-      </c>
       <c r="E2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="F2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="G2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="H2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="I2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="J2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="K2" t="n">
         <v>645717.2797520048</v>
       </c>
-      <c r="F2" t="n">
+      <c r="L2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="M2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="N2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="O2" t="n">
         <v>645717.2797520047</v>
       </c>
-      <c r="G2" t="n">
-        <v>645717.2797520048</v>
-      </c>
-      <c r="H2" t="n">
-        <v>645717.2797520048</v>
-      </c>
-      <c r="I2" t="n">
-        <v>645717.2797520047</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="P2" t="n">
         <v>645717.2797520049</v>
-      </c>
-      <c r="K2" t="n">
-        <v>645717.279752005</v>
-      </c>
-      <c r="L2" t="n">
-        <v>645717.2797520047</v>
-      </c>
-      <c r="M2" t="n">
-        <v>645717.2797520048</v>
-      </c>
-      <c r="N2" t="n">
-        <v>645717.2797520049</v>
-      </c>
-      <c r="O2" t="n">
-        <v>645717.279752005</v>
-      </c>
-      <c r="P2" t="n">
-        <v>645717.2797520048</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>4.14093847211916e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073546</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551164</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405247</v>
+        <v>93596.7441040525</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405238</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.7441040524</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
         <v>15436.64000687967</v>
@@ -26435,7 +26435,7 @@
         <v>15436.64000687971</v>
       </c>
       <c r="H4" t="n">
-        <v>15436.64000687972</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="I4" t="n">
         <v>15436.64000687967</v>
@@ -26447,13 +26447,13 @@
         <v>15436.64000687967</v>
       </c>
       <c r="L4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687962</v>
       </c>
       <c r="M4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687973</v>
       </c>
       <c r="N4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687972</v>
       </c>
       <c r="O4" t="n">
         <v>15436.64000687967</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-873442.0145016115</v>
+        <v>-873442.0145016116</v>
       </c>
       <c r="C6" t="n">
-        <v>455302.7312259805</v>
+        <v>455302.7312259808</v>
       </c>
       <c r="D6" t="n">
-        <v>455302.7312259812</v>
+        <v>455302.7312259809</v>
       </c>
       <c r="E6" t="n">
-        <v>203398.2688595064</v>
+        <v>203710.9101884269</v>
       </c>
       <c r="F6" t="n">
-        <v>528810.7306668609</v>
+        <v>529123.3719957826</v>
       </c>
       <c r="G6" t="n">
-        <v>528810.7306668611</v>
+        <v>529123.3719957822</v>
       </c>
       <c r="H6" t="n">
-        <v>528810.7306668611</v>
+        <v>529123.3719957825</v>
       </c>
       <c r="I6" t="n">
-        <v>528810.7306668609</v>
+        <v>529123.3719957825</v>
       </c>
       <c r="J6" t="n">
-        <v>311279.5282695835</v>
+        <v>311592.1695985046</v>
       </c>
       <c r="K6" t="n">
-        <v>528810.7306668613</v>
+        <v>529123.3719957824</v>
       </c>
       <c r="L6" t="n">
-        <v>528810.7306668609</v>
+        <v>529123.3719957825</v>
       </c>
       <c r="M6" t="n">
-        <v>443755.7027313493</v>
+        <v>444068.3440602706</v>
       </c>
       <c r="N6" t="n">
-        <v>528810.7306668612</v>
+        <v>529123.3719957824</v>
       </c>
       <c r="O6" t="n">
-        <v>528810.7306668613</v>
+        <v>529123.3719957822</v>
       </c>
       <c r="P6" t="n">
-        <v>528810.7306668611</v>
+        <v>529123.3719957825</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022934</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26819,7 +26819,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26962,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.198799748375</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,32 +27011,32 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>341.3068326973558</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>831.4014554022931</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>341.3068326973549</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022933</v>
-      </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973549</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973549</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,19 +27384,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>319.0010639722452</v>
       </c>
       <c r="F2" t="n">
-        <v>379.0763412056069</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27539,10 +27539,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>153.6216279422645</v>
+        <v>154.7516505416534</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27599,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27618,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>292.2286504446552</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>150.0882792706478</v>
       </c>
     </row>
     <row r="6">
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-1.196113247300861e-12</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>107.7439527351638</v>
+        <v>107.7439527351647</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983806</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004729</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27861,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>272.9783188061464</v>
+        <v>272.9783188061499</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>141.7897891337084</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983806</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004729</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28070,16 +28070,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>160.3027978282305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28341,10 +28341,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H14" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28569,7 +28569,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28857,7 +28857,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29763,7 +29763,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29997,7 +29997,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30279,7 +30279,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970232</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31995,7 +31995,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
         <v>466.7546155663283</v>
@@ -32019,7 +32019,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32469,10 +32469,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663279</v>
       </c>
       <c r="K20" t="n">
         <v>699.5441750817575</v>
@@ -33201,7 +33201,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q29" t="n">
         <v>593.8732233669223</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067228</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034295</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966713</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840383</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106942</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014226</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525787</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034295</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966713</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840383</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106942</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014226</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35643,7 +35643,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
@@ -35667,7 +35667,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -36117,10 +36117,10 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396416</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36849,7 +36849,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924728</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236316905</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
